--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1697.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1697.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5687590797367787</v>
+        <v>0.5252051949501038</v>
       </c>
       <c r="B1">
+        <v>1.647102952003479</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.743727873622643</v>
-      </c>
       <c r="D1">
-        <v>1.850496786231217</v>
+        <v>1.40656566619873</v>
       </c>
       <c r="E1">
-        <v>1.542418049598784</v>
+        <v>1.386918067932129</v>
       </c>
     </row>
   </sheetData>
